--- a/excel/角色_role.xlsx
+++ b/excel/角色_role.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A69DB65-092C-4AC6-96D5-EDB921A44A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6B305F-C2AA-4ED6-8FDE-5733EE8C2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="5205" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息_info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,9 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
     <t>1,2,5</t>
   </si>
   <si>
@@ -180,6 +177,45 @@
   </si>
   <si>
     <t>1:2,3:7</t>
+  </si>
+  <si>
+    <t>map&lt;int,list&lt;int&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;list&lt;int&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:[2;3;4],3:[4;4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:[2;3;4],3:[4;6]</t>
+  </si>
+  <si>
+    <t>1:[2;3;4],3:[4;7]</t>
+  </si>
+  <si>
+    <t>[[1,2,3],[2,3,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,2,3],[2,3,6]]</t>
+  </si>
+  <si>
+    <t>[[1,2,3],[2,3,5]]</t>
+  </si>
+  <si>
+    <t>[[1,2,3],[2,3,7]]</t>
   </si>
 </sst>
 </file>
@@ -510,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,10 +560,11 @@
     <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
     <col min="7" max="8" width="21.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -549,8 +586,14 @@
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -570,18 +613,24 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -593,10 +642,16 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -616,10 +671,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -641,8 +702,14 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -652,8 +719,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -667,14 +740,14 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -688,14 +761,17 @@
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -710,13 +786,19 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -727,54 +809,57 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
